--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4702,28 +4702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.942766687965</v>
+        <v>435.6398282881061</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.4321640925509</v>
+        <v>596.0616321365977</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.9039014142663</v>
+        <v>539.1743465432351</v>
       </c>
       <c r="AD2" t="n">
-        <v>386942.766687965</v>
+        <v>435639.8282881061</v>
       </c>
       <c r="AE2" t="n">
-        <v>529432.1640925509</v>
+        <v>596061.6321365978</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.233035425693762e-06</v>
+        <v>4.131700178429023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.805013020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>478903.9014142663</v>
+        <v>539174.346543235</v>
       </c>
     </row>
     <row r="3">
@@ -4808,28 +4808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.3491679075075</v>
+        <v>228.6551177888429</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.5995467799464</v>
+        <v>312.8560197104023</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.914958455779</v>
+        <v>282.9974802855157</v>
       </c>
       <c r="AD3" t="n">
-        <v>204349.1679075075</v>
+        <v>228655.1177888429</v>
       </c>
       <c r="AE3" t="n">
-        <v>279599.5467799464</v>
+        <v>312856.0197104023</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.43848428554793e-06</v>
+        <v>6.362096173064518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4189453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>252914.9584557789</v>
+        <v>282997.4802855157</v>
       </c>
     </row>
     <row r="4">
@@ -4914,28 +4914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.1659724915153</v>
+        <v>189.5571737188714</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.9873701712324</v>
+        <v>259.3604877543376</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.4194527374212</v>
+        <v>234.6074868178701</v>
       </c>
       <c r="AD4" t="n">
-        <v>165165.9724915153</v>
+        <v>189557.1737188714</v>
       </c>
       <c r="AE4" t="n">
-        <v>225987.3701712324</v>
+        <v>259360.4877543376</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.886267782710086e-06</v>
+        <v>7.190612878995261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.909505208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>204419.4527374211</v>
+        <v>234607.4868178701</v>
       </c>
     </row>
     <row r="5">
@@ -5020,28 +5020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.4107978907111</v>
+        <v>177.801999118067</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.9034216807177</v>
+        <v>243.2765392638229</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.8705337168726</v>
+        <v>220.0585677973215</v>
       </c>
       <c r="AD5" t="n">
-        <v>153410.7978907111</v>
+        <v>177801.999118067</v>
       </c>
       <c r="AE5" t="n">
-        <v>209903.4216807177</v>
+        <v>243276.5392638229</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.127432247507802e-06</v>
+        <v>7.636830279207753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.681640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>189870.5337168726</v>
+        <v>220058.5677973215</v>
       </c>
     </row>
     <row r="6">
@@ -5126,28 +5126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.8483072128487</v>
+        <v>171.2395084402047</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.9243324186153</v>
+        <v>234.2974500017204</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.7483961317114</v>
+        <v>211.9364302121603</v>
       </c>
       <c r="AD6" t="n">
-        <v>146848.3072128487</v>
+        <v>171239.5084402047</v>
       </c>
       <c r="AE6" t="n">
-        <v>200924.3324186153</v>
+        <v>234297.4500017205</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.272056233559549e-06</v>
+        <v>7.904422518049855e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.557942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>181748.3961317114</v>
+        <v>211936.4302121603</v>
       </c>
     </row>
     <row r="7">
@@ -5232,28 +5232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.3399476358051</v>
+        <v>166.5605566625689</v>
       </c>
       <c r="AB7" t="n">
-        <v>194.7557959505201</v>
+        <v>227.8955017587784</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.168576126534</v>
+        <v>206.1454749243319</v>
       </c>
       <c r="AD7" t="n">
-        <v>142339.9476358051</v>
+        <v>166560.5566625689</v>
       </c>
       <c r="AE7" t="n">
-        <v>194755.7959505201</v>
+        <v>227895.5017587784</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.378493511867486e-06</v>
+        <v>8.101359349734811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>176168.576126534</v>
+        <v>206145.4749243319</v>
       </c>
     </row>
     <row r="8">
@@ -5338,28 +5338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.1947623860243</v>
+        <v>163.4153714127881</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.4524147359919</v>
+        <v>223.5921205442501</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.2759035752854</v>
+        <v>202.2528023730833</v>
       </c>
       <c r="AD8" t="n">
-        <v>139194.7623860243</v>
+        <v>163415.3714127881</v>
       </c>
       <c r="AE8" t="n">
-        <v>190452.4147359919</v>
+        <v>223592.1205442501</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.446650716398005e-06</v>
+        <v>8.227468022655879e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>172275.9035752854</v>
+        <v>202252.8023730833</v>
       </c>
     </row>
     <row r="9">
@@ -5444,28 +5444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.110063785784</v>
+        <v>160.3306728125478</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.2317940238475</v>
+        <v>219.3714998321058</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.4580929802284</v>
+        <v>198.4349917780263</v>
       </c>
       <c r="AD9" t="n">
-        <v>136110.0637857839</v>
+        <v>160330.6728125478</v>
       </c>
       <c r="AE9" t="n">
-        <v>186231.7940238475</v>
+        <v>219371.4998321058</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.514807920928525e-06</v>
+        <v>8.353576695576948e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>168458.0929802284</v>
+        <v>198434.9917780263</v>
       </c>
     </row>
     <row r="10">
@@ -5550,28 +5550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.9586352034881</v>
+        <v>158.179244230252</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.2881145232215</v>
+        <v>216.4278203314798</v>
       </c>
       <c r="AC10" t="n">
-        <v>165.7953541196611</v>
+        <v>195.772252917459</v>
       </c>
       <c r="AD10" t="n">
-        <v>133958.6352034881</v>
+        <v>158179.244230252</v>
       </c>
       <c r="AE10" t="n">
-        <v>183288.1145232215</v>
+        <v>216427.8203314798</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.54767276475694e-06</v>
+        <v>8.414385261149845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.341471354166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>165795.3541196611</v>
+        <v>195772.2529174589</v>
       </c>
     </row>
     <row r="11">
@@ -5656,28 +5656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.1195210015025</v>
+        <v>156.3401300282663</v>
       </c>
       <c r="AB11" t="n">
-        <v>180.7717573360736</v>
+        <v>213.9114631443319</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.5191545307243</v>
+        <v>193.4960533285222</v>
       </c>
       <c r="AD11" t="n">
-        <v>132119.5210015025</v>
+        <v>156340.1300282663</v>
       </c>
       <c r="AE11" t="n">
-        <v>180771.7573360736</v>
+        <v>213911.4631443319</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.580070778417337e-06</v>
+        <v>8.474330068689039e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.318684895833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>163519.1545307243</v>
+        <v>193496.0533285222</v>
       </c>
     </row>
     <row r="12">
@@ -5762,28 +5762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.3905891240836</v>
+        <v>142.5862792463126</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.4061564662991</v>
+        <v>195.0928377274001</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.3793232878187</v>
+        <v>176.4734511092697</v>
       </c>
       <c r="AD12" t="n">
-        <v>130390.5891240836</v>
+        <v>142586.2792463126</v>
       </c>
       <c r="AE12" t="n">
-        <v>178406.1564662991</v>
+        <v>195092.8377274001</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.61368255051458e-06</v>
+        <v>8.536520647115865e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>161379.3232878187</v>
+        <v>176473.4511092697</v>
       </c>
     </row>
     <row r="13">
@@ -5868,28 +5868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>128.3155528306186</v>
+        <v>140.5112429528477</v>
       </c>
       <c r="AB13" t="n">
-        <v>175.5670002654414</v>
+        <v>192.2536815265424</v>
       </c>
       <c r="AC13" t="n">
-        <v>158.8111321699892</v>
+        <v>173.9052599914401</v>
       </c>
       <c r="AD13" t="n">
-        <v>128315.5528306186</v>
+        <v>140511.2429528477</v>
       </c>
       <c r="AE13" t="n">
-        <v>175567.0002654414</v>
+        <v>192253.6815265424</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.630955266731218e-06</v>
+        <v>8.568479694362985e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH13" t="n">
-        <v>158811.1321699891</v>
+        <v>173905.2599914401</v>
       </c>
     </row>
     <row r="14">
@@ -5974,28 +5974,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>126.48572691282</v>
+        <v>138.6814170350491</v>
       </c>
       <c r="AB14" t="n">
-        <v>173.0633517184885</v>
+        <v>189.7500329795895</v>
       </c>
       <c r="AC14" t="n">
-        <v>156.5464283264639</v>
+        <v>171.6405561479149</v>
       </c>
       <c r="AD14" t="n">
-        <v>126485.72691282</v>
+        <v>138681.4170350491</v>
       </c>
       <c r="AE14" t="n">
-        <v>173063.3517184885</v>
+        <v>189750.0329795895</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.666247627433324e-06</v>
+        <v>8.633779801711156e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.2568359375</v>
       </c>
       <c r="AH14" t="n">
-        <v>156546.4283264639</v>
+        <v>171640.5561479148</v>
       </c>
     </row>
     <row r="15">
@@ -6080,28 +6080,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>124.8632620708238</v>
+        <v>137.0589521930528</v>
       </c>
       <c r="AB15" t="n">
-        <v>170.8434237435733</v>
+        <v>187.5301050046742</v>
       </c>
       <c r="AC15" t="n">
-        <v>154.5383671617853</v>
+        <v>169.6324949832363</v>
       </c>
       <c r="AD15" t="n">
-        <v>124863.2620708238</v>
+        <v>137058.9521930529</v>
       </c>
       <c r="AE15" t="n">
-        <v>170843.4237435733</v>
+        <v>187530.1050046742</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.685107566221221e-06</v>
+        <v>8.668675626272877e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.243815104166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>154538.3671617853</v>
+        <v>169632.4949832363</v>
       </c>
     </row>
     <row r="16">
@@ -6186,28 +6186,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>124.3848146117445</v>
+        <v>136.5805047339735</v>
       </c>
       <c r="AB16" t="n">
-        <v>170.1887908224491</v>
+        <v>186.87547208355</v>
       </c>
       <c r="AC16" t="n">
-        <v>153.9462114878699</v>
+        <v>169.0403393093209</v>
       </c>
       <c r="AD16" t="n">
-        <v>124384.8146117445</v>
+        <v>136580.5047339735</v>
       </c>
       <c r="AE16" t="n">
-        <v>170188.7908224491</v>
+        <v>186875.47208355</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.680625996608256e-06</v>
+        <v>8.660383549149299e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.2470703125</v>
       </c>
       <c r="AH16" t="n">
-        <v>153946.2114878699</v>
+        <v>169040.3393093209</v>
       </c>
     </row>
     <row r="17">
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>123.7146301982829</v>
+        <v>135.9103203205119</v>
       </c>
       <c r="AB17" t="n">
-        <v>169.2718149415017</v>
+        <v>185.9584962026027</v>
       </c>
       <c r="AC17" t="n">
-        <v>153.1167504980162</v>
+        <v>168.2108783194672</v>
       </c>
       <c r="AD17" t="n">
-        <v>123714.6301982829</v>
+        <v>135910.3203205119</v>
       </c>
       <c r="AE17" t="n">
-        <v>169271.8149415017</v>
+        <v>185958.4962026027</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.699205837295342e-06</v>
+        <v>8.694761118890797e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.234049479166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>153116.7504980162</v>
+        <v>168210.8783194672</v>
       </c>
     </row>
     <row r="18">
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>123.9317275959759</v>
+        <v>136.1274177182049</v>
       </c>
       <c r="AB18" t="n">
-        <v>169.5688571786864</v>
+        <v>186.2555384397873</v>
       </c>
       <c r="AC18" t="n">
-        <v>153.3854434409854</v>
+        <v>168.4795712624364</v>
       </c>
       <c r="AD18" t="n">
-        <v>123931.7275959759</v>
+        <v>136127.4177182049</v>
       </c>
       <c r="AE18" t="n">
-        <v>169568.8571786864</v>
+        <v>186255.5384397873</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.701446622101825e-06</v>
+        <v>8.698907157452584e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.232421875</v>
       </c>
       <c r="AH18" t="n">
-        <v>153385.4434409854</v>
+        <v>168479.5712624364</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.2499482337992</v>
+        <v>312.5410846319509</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.345610577952</v>
+        <v>427.6325003329579</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.1413979192998</v>
+        <v>386.8198546871636</v>
       </c>
       <c r="AD2" t="n">
-        <v>277249.9482337992</v>
+        <v>312541.0846319509</v>
       </c>
       <c r="AE2" t="n">
-        <v>379345.610577952</v>
+        <v>427632.5003329579</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.731447993395877e-06</v>
+        <v>5.206561426333085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>343141.3979192998</v>
+        <v>386819.8546871635</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.2304984232211</v>
+        <v>195.6726713426347</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.6533662158752</v>
+        <v>267.7279813998802</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.162939685877</v>
+        <v>242.1763986137358</v>
       </c>
       <c r="AD3" t="n">
-        <v>172230.4984232211</v>
+        <v>195672.6713426347</v>
       </c>
       <c r="AE3" t="n">
-        <v>235653.3662158752</v>
+        <v>267727.9813998801</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.850684886870821e-06</v>
+        <v>7.339999679810729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>213162.939685877</v>
+        <v>242176.3986137358</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.5382865292057</v>
+        <v>165.0657107946398</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.6589278576794</v>
+        <v>225.8501876943335</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.1763915850095</v>
+        <v>204.2953627635806</v>
       </c>
       <c r="AD4" t="n">
-        <v>141538.2865292057</v>
+        <v>165065.7107946398</v>
       </c>
       <c r="AE4" t="n">
-        <v>193658.9278576794</v>
+        <v>225850.1876943335</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.263686004967029e-06</v>
+        <v>8.127243550355292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6865234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>175176.3915850095</v>
+        <v>204295.3627635806</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.3446852769055</v>
+        <v>156.8721095423397</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.4480811481124</v>
+        <v>214.6393409847665</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.0354923508779</v>
+        <v>194.154463529449</v>
       </c>
       <c r="AD5" t="n">
-        <v>133344.6852769055</v>
+        <v>156872.1095423397</v>
       </c>
       <c r="AE5" t="n">
-        <v>182448.0811481124</v>
+        <v>214639.3409847665</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.470283149870629e-06</v>
+        <v>8.521049593174475e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.517252604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>165035.4923508779</v>
+        <v>194154.463529449</v>
       </c>
     </row>
     <row r="6">
@@ -7119,28 +7119,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.227573652015</v>
+        <v>151.5844057168569</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.4466232719085</v>
+        <v>207.4044713337158</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.7022437877688</v>
+        <v>187.6100796836888</v>
       </c>
       <c r="AD6" t="n">
-        <v>128227.573652015</v>
+        <v>151584.4057168569</v>
       </c>
       <c r="AE6" t="n">
-        <v>175446.6232719085</v>
+        <v>207404.4713337158</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.600577468933254e-06</v>
+        <v>8.769410673942629e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.416341145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>158702.2437877688</v>
+        <v>187610.0796836888</v>
       </c>
     </row>
     <row r="7">
@@ -7225,28 +7225,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.8856829411566</v>
+        <v>148.2425150059985</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.8741009675015</v>
+        <v>202.8319490293088</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.5661165945176</v>
+        <v>183.4739524904377</v>
       </c>
       <c r="AD7" t="n">
-        <v>124885.6829411566</v>
+        <v>148242.5150059985</v>
       </c>
       <c r="AE7" t="n">
-        <v>170874.1009675015</v>
+        <v>202831.9490293088</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.680647143138528e-06</v>
+        <v>8.922035830322759e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>154566.1165945176</v>
+        <v>183473.9524904377</v>
       </c>
     </row>
     <row r="8">
@@ -7331,28 +7331,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.9087904830442</v>
+        <v>145.2656225478861</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.8009853750878</v>
+        <v>198.7588334368951</v>
       </c>
       <c r="AC8" t="n">
-        <v>150.881733437589</v>
+        <v>179.789569333509</v>
       </c>
       <c r="AD8" t="n">
-        <v>121908.7904830442</v>
+        <v>145265.6225478861</v>
       </c>
       <c r="AE8" t="n">
-        <v>166800.9853750878</v>
+        <v>198758.8334368951</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.742462090655267e-06</v>
+        <v>9.039864660338782e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.3154296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>150881.733437589</v>
+        <v>179789.569333509</v>
       </c>
     </row>
     <row r="9">
@@ -7437,28 +7437,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.4089042056394</v>
+        <v>131.1727058469075</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.3805306831454</v>
+        <v>179.4762830710208</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.7877221408062</v>
+        <v>162.3473185113182</v>
       </c>
       <c r="AD9" t="n">
-        <v>119408.9042056394</v>
+        <v>131172.7058469075</v>
       </c>
       <c r="AE9" t="n">
-        <v>163380.5306831454</v>
+        <v>179476.2830710209</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.791914048668657e-06</v>
+        <v>9.134127724351602e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>147787.7221408061</v>
+        <v>162347.3185113182</v>
       </c>
     </row>
     <row r="10">
@@ -7543,28 +7543,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>116.5869510689332</v>
+        <v>128.3507527102013</v>
       </c>
       <c r="AB10" t="n">
-        <v>159.51940990572</v>
+        <v>175.6151622935954</v>
       </c>
       <c r="AC10" t="n">
-        <v>144.2951013112599</v>
+        <v>158.854697681772</v>
       </c>
       <c r="AD10" t="n">
-        <v>116586.9510689332</v>
+        <v>128350.7527102013</v>
       </c>
       <c r="AE10" t="n">
-        <v>159519.40990572</v>
+        <v>175615.1622935954</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.842428451092493e-06</v>
+        <v>9.230415971380325e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.2470703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>144295.1013112599</v>
+        <v>158854.697681772</v>
       </c>
     </row>
     <row r="11">
@@ -7649,28 +7649,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.526106923062</v>
+        <v>126.2899085643301</v>
       </c>
       <c r="AB11" t="n">
-        <v>156.6996720273135</v>
+        <v>172.7954244151889</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.7444752584406</v>
+        <v>156.3040716289528</v>
       </c>
       <c r="AD11" t="n">
-        <v>114526.106923062</v>
+        <v>126289.9085643301</v>
       </c>
       <c r="AE11" t="n">
-        <v>156699.6720273134</v>
+        <v>172795.4244151889</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.856723157705738e-06</v>
+        <v>9.257663888321529e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.2373046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>141744.4752584407</v>
+        <v>156304.0716289527</v>
       </c>
     </row>
     <row r="12">
@@ -7755,28 +7755,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>114.1071445317643</v>
+        <v>125.8709461730325</v>
       </c>
       <c r="AB12" t="n">
-        <v>156.1264292002241</v>
+        <v>172.2221815880996</v>
       </c>
       <c r="AC12" t="n">
-        <v>141.2259419222171</v>
+        <v>155.7855382927292</v>
       </c>
       <c r="AD12" t="n">
-        <v>114107.1445317644</v>
+        <v>125870.9461730325</v>
       </c>
       <c r="AE12" t="n">
-        <v>156126.4292002241</v>
+        <v>172222.1815880996</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.868506632076116e-06</v>
+        <v>9.280125009043335e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>141225.9419222171</v>
+        <v>155785.5382927292</v>
       </c>
     </row>
     <row r="13">
@@ -7861,28 +7861,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.4380947547252</v>
+        <v>125.2018963959933</v>
       </c>
       <c r="AB13" t="n">
-        <v>155.2110057788865</v>
+        <v>171.306758166762</v>
       </c>
       <c r="AC13" t="n">
-        <v>140.3978852274069</v>
+        <v>154.957481597919</v>
       </c>
       <c r="AD13" t="n">
-        <v>113438.0947547252</v>
+        <v>125201.8963959933</v>
       </c>
       <c r="AE13" t="n">
-        <v>155211.0057788865</v>
+        <v>171306.758166762</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.890045277851479e-06</v>
+        <v>9.321180992002042e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.214518229166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>140397.8852274069</v>
+        <v>154957.481597919</v>
       </c>
     </row>
   </sheetData>
@@ -8158,28 +8158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.8794839236565</v>
+        <v>151.7211175600174</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.0750838995908</v>
+        <v>207.5915265088287</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.9844092257228</v>
+        <v>187.7792825754227</v>
       </c>
       <c r="AD2" t="n">
-        <v>130879.4839236565</v>
+        <v>151721.1175600174</v>
       </c>
       <c r="AE2" t="n">
-        <v>179075.0838995908</v>
+        <v>207591.5265088287</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.313185288145154e-06</v>
+        <v>9.185955890503225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0673828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>161984.4092257228</v>
+        <v>187779.2825754227</v>
       </c>
     </row>
     <row r="3">
@@ -8264,28 +8264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.49884718521504</v>
+        <v>118.2551399670043</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.4022240643196</v>
+        <v>161.8018995513599</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.6705030308539</v>
+        <v>146.359753348615</v>
       </c>
       <c r="AD3" t="n">
-        <v>97498.84718521504</v>
+        <v>118255.1399670043</v>
       </c>
       <c r="AE3" t="n">
-        <v>133402.2240643196</v>
+        <v>161801.8995513599</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.104905906004083e-06</v>
+        <v>1.087211361093393e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.435872395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>120670.5030308539</v>
+        <v>146359.753348615</v>
       </c>
     </row>
     <row r="4">
@@ -8370,28 +8370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.0892892136565</v>
+        <v>100.5528212133983</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.2641399610111</v>
+        <v>137.5808060615031</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.4999834454715</v>
+        <v>124.4502870269042</v>
       </c>
       <c r="AD4" t="n">
-        <v>90089.28921365651</v>
+        <v>100552.8212133983</v>
       </c>
       <c r="AE4" t="n">
-        <v>123264.1399610111</v>
+        <v>137580.8060615031</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.365184328564566e-06</v>
+        <v>1.142643853536085e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.269856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>111499.9834454715</v>
+        <v>124450.2870269042</v>
       </c>
     </row>
     <row r="5">
@@ -8476,28 +8476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.89872813038029</v>
+        <v>99.36226013012208</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.6351617630254</v>
+        <v>135.9518278635173</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.0264726404158</v>
+        <v>122.9767762218484</v>
       </c>
       <c r="AD5" t="n">
-        <v>88898.72813038029</v>
+        <v>99362.26013012209</v>
       </c>
       <c r="AE5" t="n">
-        <v>121635.1617630253</v>
+        <v>135951.8278635173</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.410019038206455e-06</v>
+        <v>1.1521924733523e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>110026.4726404158</v>
+        <v>122976.7762218484</v>
       </c>
     </row>
   </sheetData>
@@ -8773,28 +8773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.8060897453957</v>
+        <v>189.8350226923677</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.5996950717426</v>
+        <v>259.7406529777067</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.6870224193577</v>
+        <v>234.9513696058862</v>
       </c>
       <c r="AD2" t="n">
-        <v>167806.0897453957</v>
+        <v>189835.0226923677</v>
       </c>
       <c r="AE2" t="n">
-        <v>229599.6950717426</v>
+        <v>259740.6529777067</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.68602643770162e-06</v>
+        <v>7.48390804458171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.552408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>207687.0224193577</v>
+        <v>234951.3696058862</v>
       </c>
     </row>
     <row r="3">
@@ -8879,28 +8879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.5595441862355</v>
+        <v>140.5031362786359</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.2183988334781</v>
+        <v>192.2425896172446</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.7365025238084</v>
+        <v>173.8952266783982</v>
       </c>
       <c r="AD3" t="n">
-        <v>118559.5441862355</v>
+        <v>140503.1362786359</v>
       </c>
       <c r="AE3" t="n">
-        <v>162218.3988334782</v>
+        <v>192242.5896172446</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.605522487251915e-06</v>
+        <v>9.350802924066454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.644205729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>146736.5025238084</v>
+        <v>173895.2266783981</v>
       </c>
     </row>
     <row r="4">
@@ -8985,28 +8985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.7087186500701</v>
+        <v>130.4817185418783</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.7400647471523</v>
+        <v>178.5308437560719</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.5445217257166</v>
+        <v>161.4921105976553</v>
       </c>
       <c r="AD4" t="n">
-        <v>108708.71865007</v>
+        <v>130481.7185418782</v>
       </c>
       <c r="AE4" t="n">
-        <v>148740.0647471523</v>
+        <v>178530.8437560719</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.921438151730734e-06</v>
+        <v>9.99222094500627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>134544.5217257166</v>
+        <v>161492.1105976553</v>
       </c>
     </row>
     <row r="5">
@@ -9091,28 +9091,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.8144580929784</v>
+        <v>113.7863436477297</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.6752774165203</v>
+        <v>155.6874952779518</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.2494263789174</v>
+        <v>140.8288992374388</v>
       </c>
       <c r="AD5" t="n">
-        <v>102814.4580929784</v>
+        <v>113786.3436477296</v>
       </c>
       <c r="AE5" t="n">
-        <v>140675.2774165203</v>
+        <v>155687.4952779518</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.099295371452001e-06</v>
+        <v>1.035333259191266e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.291015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>127249.4263789174</v>
+        <v>140828.8992374388</v>
       </c>
     </row>
     <row r="6">
@@ -9197,28 +9197,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.00852945559839</v>
+        <v>109.9804150103496</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.4678379491382</v>
+        <v>150.4800558105698</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.5389776256134</v>
+        <v>136.1184504841348</v>
       </c>
       <c r="AD6" t="n">
-        <v>99008.52945559839</v>
+        <v>109980.4150103496</v>
       </c>
       <c r="AE6" t="n">
-        <v>135467.8379491383</v>
+        <v>150480.0558105698</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.186316527072144e-06</v>
+        <v>1.053001562379034e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.235677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>122538.9776256134</v>
+        <v>136118.4504841348</v>
       </c>
     </row>
     <row r="7">
@@ -9303,28 +9303,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.94998695900848</v>
+        <v>108.9218725137597</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.0194934057056</v>
+        <v>149.0317112671372</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.2288610526412</v>
+        <v>134.8083339111626</v>
       </c>
       <c r="AD7" t="n">
-        <v>97949.98695900849</v>
+        <v>108921.8725137597</v>
       </c>
       <c r="AE7" t="n">
-        <v>134019.4934057056</v>
+        <v>149031.7112671372</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.214567470958306e-06</v>
+        <v>1.058737480712503e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.2177734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>121228.8610526412</v>
+        <v>134808.3339111626</v>
       </c>
     </row>
   </sheetData>
@@ -9600,28 +9600,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.08109598575524</v>
+        <v>117.1740725797419</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.8306384433368</v>
+        <v>160.3227354587812</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1534687393121</v>
+        <v>145.0217586010116</v>
       </c>
       <c r="AD2" t="n">
-        <v>97081.09598575524</v>
+        <v>117174.0725797419</v>
       </c>
       <c r="AE2" t="n">
-        <v>132830.6384433368</v>
+        <v>160322.7354587812</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861972999314675e-06</v>
+        <v>1.082666420925983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.746744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120153.4687393121</v>
+        <v>145021.7586010117</v>
       </c>
     </row>
     <row r="3">
@@ -9706,28 +9706,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.45881363667944</v>
+        <v>102.3811980300739</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8237866437722</v>
+        <v>140.0824718843697</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0560427956987</v>
+        <v>126.7131973747473</v>
       </c>
       <c r="AD3" t="n">
-        <v>82458.81363667944</v>
+        <v>102381.198030074</v>
       </c>
       <c r="AE3" t="n">
-        <v>112823.7866437722</v>
+        <v>140082.4718843697</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.498878477860133e-06</v>
+        <v>1.224492830702869e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102056.0427956987</v>
+        <v>126713.1973747473</v>
       </c>
     </row>
     <row r="4">
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.26697461595366</v>
+        <v>92.31355242149806</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.561304032275</v>
+        <v>126.3074750095456</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.8186111562461</v>
+        <v>114.2528668683225</v>
       </c>
       <c r="AD4" t="n">
-        <v>82266.97461595366</v>
+        <v>92313.55242149805</v>
       </c>
       <c r="AE4" t="n">
-        <v>112561.304032275</v>
+        <v>126307.4750095456</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.525071075747591e-06</v>
+        <v>1.230325410648e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.297526041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>101818.6111562461</v>
+        <v>114252.8668683225</v>
       </c>
     </row>
   </sheetData>
@@ -10109,28 +10109,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.0131040059027</v>
+        <v>346.5595436426576</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.5418498306511</v>
+        <v>474.1780567398982</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.9287329345504</v>
+        <v>428.923168517724</v>
       </c>
       <c r="AD2" t="n">
-        <v>311013.1040059027</v>
+        <v>346559.5436426576</v>
       </c>
       <c r="AE2" t="n">
-        <v>425541.8498306511</v>
+        <v>474178.0567398982</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.595399852138437e-06</v>
+        <v>4.907287745972416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>384928.7329345504</v>
+        <v>428923.168517724</v>
       </c>
     </row>
     <row r="3">
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.8537921376899</v>
+        <v>203.5230014468527</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.083892991989</v>
+        <v>278.4691493805872</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.597991625818</v>
+        <v>251.8924445976916</v>
       </c>
       <c r="AD3" t="n">
-        <v>179853.7921376899</v>
+        <v>203523.0014468527</v>
       </c>
       <c r="AE3" t="n">
-        <v>246083.892991989</v>
+        <v>278469.1493805872</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.742391422419642e-06</v>
+        <v>7.075977735276767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.163411458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>222597.991625818</v>
+        <v>251892.4445976916</v>
       </c>
     </row>
     <row r="4">
@@ -10321,28 +10321,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.9770905525266</v>
+        <v>171.7315512077099</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.4687835823682</v>
+        <v>234.9706846236157</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.145447044047</v>
+        <v>212.5454122666328</v>
       </c>
       <c r="AD4" t="n">
-        <v>147977.0905525266</v>
+        <v>171731.5512077099</v>
       </c>
       <c r="AE4" t="n">
-        <v>202468.7835823682</v>
+        <v>234970.6846236157</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.1507253987878e-06</v>
+        <v>7.848040782457972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.753255208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>183145.447044047</v>
+        <v>212545.4122666328</v>
       </c>
     </row>
     <row r="5">
@@ -10427,28 +10427,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.4877665838398</v>
+        <v>162.2422272390232</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.4850718889901</v>
+        <v>221.9869729302376</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.400882571927</v>
+        <v>200.8008477945128</v>
       </c>
       <c r="AD5" t="n">
-        <v>138487.7665838398</v>
+        <v>162242.2272390232</v>
       </c>
       <c r="AE5" t="n">
-        <v>189485.0718889901</v>
+        <v>221986.9729302376</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.37489749739404e-06</v>
+        <v>8.271897242021584e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.561197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>171400.882571927</v>
+        <v>200800.8477945128</v>
       </c>
     </row>
     <row r="6">
@@ -10533,28 +10533,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.9562655549626</v>
+        <v>156.5401340095538</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.9166281486817</v>
+        <v>214.1851174150823</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.5547604798137</v>
+        <v>193.7435904197485</v>
       </c>
       <c r="AD6" t="n">
-        <v>132956.2655549627</v>
+        <v>156540.1340095538</v>
       </c>
       <c r="AE6" t="n">
-        <v>181916.6281486817</v>
+        <v>214185.1174150823</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.508903021753022e-06</v>
+        <v>8.5252700188743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.455403645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>164554.7604798137</v>
+        <v>193743.5904197485</v>
       </c>
     </row>
     <row r="7">
@@ -10639,28 +10639,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.0935117177713</v>
+        <v>152.6773801723625</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.631437935967</v>
+        <v>208.8999272023676</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.7739814031878</v>
+        <v>188.9628113431225</v>
       </c>
       <c r="AD7" t="n">
-        <v>129093.5117177713</v>
+        <v>152677.3801723625</v>
       </c>
       <c r="AE7" t="n">
-        <v>176631.437935967</v>
+        <v>208899.9272023676</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.60328119819442e-06</v>
+        <v>8.70371684600057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.3837890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>159773.9814031878</v>
+        <v>188962.8113431225</v>
       </c>
     </row>
     <row r="8">
@@ -10745,28 +10745,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.3153140567702</v>
+        <v>149.8991825113614</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.8301853307566</v>
+        <v>205.0986745971572</v>
       </c>
       <c r="AC8" t="n">
-        <v>156.3355150115259</v>
+        <v>185.5243449514606</v>
       </c>
       <c r="AD8" t="n">
-        <v>126315.3140567702</v>
+        <v>149899.1825113614</v>
       </c>
       <c r="AE8" t="n">
-        <v>172830.1853307566</v>
+        <v>205098.6745971573</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.663870838851016e-06</v>
+        <v>8.818277537248975e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>156335.5150115259</v>
+        <v>185524.3449514607</v>
       </c>
     </row>
     <row r="9">
@@ -10851,28 +10851,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.6160923390897</v>
+        <v>147.1999607936809</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.1369910953701</v>
+        <v>201.4054803617708</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.9947940505329</v>
+        <v>182.1836239904676</v>
       </c>
       <c r="AD9" t="n">
-        <v>123616.0923390897</v>
+        <v>147199.9607936809</v>
       </c>
       <c r="AE9" t="n">
-        <v>169136.9910953701</v>
+        <v>201405.4803617708</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.713357164632156e-06</v>
+        <v>8.911844484129586e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.3056640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>152994.7940505329</v>
+        <v>182183.6239904676</v>
       </c>
     </row>
     <row r="10">
@@ -10957,28 +10957,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.9995345555009</v>
+        <v>132.8768543916437</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.5569013014833</v>
+        <v>181.8079742916555</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.7563830018859</v>
+        <v>164.4564763944053</v>
       </c>
       <c r="AD10" t="n">
-        <v>120999.5345555009</v>
+        <v>132876.8543916437</v>
       </c>
       <c r="AE10" t="n">
-        <v>165556.9013014833</v>
+        <v>181807.9742916555</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.765619319132158e-06</v>
+        <v>9.010659867102146e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.269856770833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>149756.3830018859</v>
+        <v>164456.4763944054</v>
       </c>
     </row>
     <row r="11">
@@ -11063,28 +11063,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>118.9301850587275</v>
+        <v>130.8075048948702</v>
       </c>
       <c r="AB11" t="n">
-        <v>162.7255260267427</v>
+        <v>178.9765990169148</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.1952302095055</v>
+        <v>161.8953236020249</v>
       </c>
       <c r="AD11" t="n">
-        <v>118930.1850587275</v>
+        <v>130807.5048948702</v>
       </c>
       <c r="AE11" t="n">
-        <v>162725.5260267427</v>
+        <v>178976.5990169148</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.800173600770439e-06</v>
+        <v>9.075993847419167e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.245442708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>147195.2302095055</v>
+        <v>161895.3236020249</v>
       </c>
     </row>
     <row r="12">
@@ -11169,28 +11169,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>117.7856832437925</v>
+        <v>129.6630030799352</v>
       </c>
       <c r="AB12" t="n">
-        <v>161.1595681516929</v>
+        <v>177.4106411418651</v>
       </c>
       <c r="AC12" t="n">
-        <v>145.7787251562142</v>
+        <v>160.4788185487337</v>
       </c>
       <c r="AD12" t="n">
-        <v>117785.6832437925</v>
+        <v>129663.0030799352</v>
       </c>
       <c r="AE12" t="n">
-        <v>161159.5681516929</v>
+        <v>177410.6411418651</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.812616970889488e-06</v>
+        <v>9.099521319555489e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.2373046875</v>
       </c>
       <c r="AH12" t="n">
-        <v>145778.7251562142</v>
+        <v>160478.8185487337</v>
       </c>
     </row>
     <row r="13">
@@ -11275,28 +11275,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.355746844798</v>
+        <v>128.2330666809407</v>
       </c>
       <c r="AB13" t="n">
-        <v>159.2030660862479</v>
+        <v>175.45413907642</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.0089489019268</v>
+        <v>158.7090422944462</v>
       </c>
       <c r="AD13" t="n">
-        <v>116355.746844798</v>
+        <v>128233.0666809407</v>
       </c>
       <c r="AE13" t="n">
-        <v>159203.0660862479</v>
+        <v>175454.13907642</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.830229125519525e-06</v>
+        <v>9.132821741656132e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.225911458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>144008.9489019268</v>
+        <v>158709.0422944463</v>
       </c>
     </row>
     <row r="14">
@@ -11381,28 +11381,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.365202137628</v>
+        <v>128.2425219737707</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.216003235036</v>
+        <v>175.4670762252081</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.0206513473919</v>
+        <v>158.7207447399114</v>
       </c>
       <c r="AD14" t="n">
-        <v>116365.202137628</v>
+        <v>128242.5219737707</v>
       </c>
       <c r="AE14" t="n">
-        <v>159216.003235036</v>
+        <v>175467.0762252081</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.83032484375121e-06</v>
+        <v>9.133002722211029e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.225911458333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>144020.6513473919</v>
+        <v>158720.7447399114</v>
       </c>
     </row>
   </sheetData>
@@ -11678,28 +11678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.70050578335265</v>
+        <v>104.2996837529499</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.8909687353267</v>
+        <v>142.707428688024</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.8304973332533</v>
+        <v>129.0876319852116</v>
       </c>
       <c r="AD2" t="n">
-        <v>84700.50578335265</v>
+        <v>104299.6837529499</v>
       </c>
       <c r="AE2" t="n">
-        <v>115890.9687353267</v>
+        <v>142707.428688024</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.22365850161646e-06</v>
+        <v>1.197558578467626e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5693359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104830.4973332533</v>
+        <v>129087.6319852116</v>
       </c>
     </row>
     <row r="3">
@@ -11784,28 +11784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.23269853771842</v>
+        <v>97.66128430672347</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.0414295223369</v>
+        <v>133.6244777001874</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.82554572234218</v>
+        <v>120.8715450916495</v>
       </c>
       <c r="AD3" t="n">
-        <v>78232.69853771842</v>
+        <v>97661.28430672348</v>
       </c>
       <c r="AE3" t="n">
-        <v>107041.4295223369</v>
+        <v>133624.4777001874</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.554482951796683e-06</v>
+        <v>1.27340229186458e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.356119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96825.54572234218</v>
+        <v>120871.5450916495</v>
       </c>
     </row>
   </sheetData>
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.1447620722367</v>
+        <v>245.9354329141014</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.3165079192084</v>
+        <v>336.4997092184683</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.1775289178996</v>
+        <v>304.384649251066</v>
       </c>
       <c r="AD2" t="n">
-        <v>223144.7620722367</v>
+        <v>245935.4329141014</v>
       </c>
       <c r="AE2" t="n">
-        <v>305316.5079192084</v>
+        <v>336499.7092184683</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.167908316144104e-06</v>
+        <v>6.209056519358023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1123046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>276177.5289178996</v>
+        <v>304384.649251066</v>
       </c>
     </row>
     <row r="3">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4616239411016</v>
+        <v>162.2522052744152</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8175464887493</v>
+        <v>222.0006253184608</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6061876660254</v>
+        <v>200.8131972179652</v>
       </c>
       <c r="AD3" t="n">
-        <v>139461.6239411016</v>
+        <v>162252.2052744152</v>
       </c>
       <c r="AE3" t="n">
-        <v>190817.5464887493</v>
+        <v>222000.6253184608</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.191005174794526e-06</v>
+        <v>8.214312223181602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.863932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172606.1876660254</v>
+        <v>200813.1972179652</v>
       </c>
     </row>
     <row r="4">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.4798048905535</v>
+        <v>148.2703862238671</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.6870048294765</v>
+        <v>202.870083659188</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.3014380528237</v>
+        <v>183.5084476047634</v>
       </c>
       <c r="AD4" t="n">
-        <v>125479.8048905535</v>
+        <v>148270.3862238672</v>
       </c>
       <c r="AE4" t="n">
-        <v>171687.0048294765</v>
+        <v>202870.083659188</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.561891469142365e-06</v>
+        <v>8.94124423447919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.5498046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>155301.4380528237</v>
+        <v>183508.4476047634</v>
       </c>
     </row>
     <row r="5">
@@ -12399,28 +12399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.9276148287593</v>
+        <v>141.5476039614808</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.7220093247097</v>
+        <v>193.6716763795743</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.1920491365788</v>
+        <v>175.1879234058675</v>
       </c>
       <c r="AD5" t="n">
-        <v>118927.6148287593</v>
+        <v>141547.6039614808</v>
       </c>
       <c r="AE5" t="n">
-        <v>162722.0093247097</v>
+        <v>193671.6763795743</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.743801892020778e-06</v>
+        <v>9.29778614933081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.414713541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>147192.0491365787</v>
+        <v>175187.9234058675</v>
       </c>
     </row>
     <row r="6">
@@ -12505,28 +12505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.2829730814659</v>
+        <v>136.9029622141874</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.3670055789337</v>
+        <v>187.3166726337984</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.4435580289939</v>
+        <v>169.4394322982826</v>
       </c>
       <c r="AD6" t="n">
-        <v>114282.9730814659</v>
+        <v>136902.9622141874</v>
       </c>
       <c r="AE6" t="n">
-        <v>156367.0055789337</v>
+        <v>187316.6726337984</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.866999432241498e-06</v>
+        <v>9.539251625581522e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.328450520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>141443.5580289939</v>
+        <v>169439.4322982826</v>
       </c>
     </row>
     <row r="7">
@@ -12611,28 +12611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.998161903409</v>
+        <v>122.3935420786169</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.8725820094771</v>
+        <v>167.4642438938812</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.3780759370416</v>
+        <v>151.4816914942381</v>
       </c>
       <c r="AD7" t="n">
-        <v>110998.161903409</v>
+        <v>122393.5420786169</v>
       </c>
       <c r="AE7" t="n">
-        <v>151872.5820094771</v>
+        <v>167464.2438938812</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.945117420184361e-06</v>
+        <v>9.692361802364083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>137378.0759370416</v>
+        <v>151481.6914942381</v>
       </c>
     </row>
     <row r="8">
@@ -12717,28 +12717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.8951760671395</v>
+        <v>119.2905562423474</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.6269398942217</v>
+        <v>163.2186017786258</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.5376319464687</v>
+        <v>147.6412475036652</v>
       </c>
       <c r="AD8" t="n">
-        <v>107895.1760671395</v>
+        <v>119290.5562423474</v>
       </c>
       <c r="AE8" t="n">
-        <v>147626.9398942217</v>
+        <v>163218.6017786258</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.007213757096906e-06</v>
+        <v>9.814069764545381e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.234049479166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>133537.6319464687</v>
+        <v>147641.2475036652</v>
       </c>
     </row>
     <row r="9">
@@ -12823,28 +12823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.879706064789</v>
+        <v>117.2750862399968</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.8692849207459</v>
+        <v>160.46094680515</v>
       </c>
       <c r="AC9" t="n">
-        <v>131.0431636932675</v>
+        <v>145.146779250464</v>
       </c>
       <c r="AD9" t="n">
-        <v>105879.706064789</v>
+        <v>117275.0862399968</v>
       </c>
       <c r="AE9" t="n">
-        <v>144869.2849207459</v>
+        <v>160460.94680515</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.042740026772832e-06</v>
+        <v>9.883700762139488e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.211263020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>131043.1636932675</v>
+        <v>145146.779250464</v>
       </c>
     </row>
     <row r="10">
@@ -12929,28 +12929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.1501257544559</v>
+        <v>117.5455059296638</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.2392850702228</v>
+        <v>160.8309469546269</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.3778515477769</v>
+        <v>145.4814671049734</v>
       </c>
       <c r="AD10" t="n">
-        <v>106150.1257544559</v>
+        <v>117545.5059296638</v>
       </c>
       <c r="AE10" t="n">
-        <v>145239.2850702228</v>
+        <v>160830.9469546269</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.037963385471867e-06</v>
+        <v>9.874338611202465e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.214518229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>131377.851547777</v>
+        <v>145481.4671049734</v>
       </c>
     </row>
   </sheetData>
@@ -13226,28 +13226,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.4110489720042</v>
+        <v>293.3486807700178</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.5693974943857</v>
+        <v>401.3726066599606</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.8252304352868</v>
+        <v>363.0661684103247</v>
       </c>
       <c r="AD2" t="n">
-        <v>258411.0489720042</v>
+        <v>293348.6807700178</v>
       </c>
       <c r="AE2" t="n">
-        <v>353569.3974943857</v>
+        <v>401372.6066599606</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86552352130428e-06</v>
+        <v>5.509550903771285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.538736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>319825.2304352868</v>
+        <v>363066.1684103247</v>
       </c>
     </row>
     <row r="3">
@@ -13332,28 +13332,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.7249336197852</v>
+        <v>187.9314368057735</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.3839213296698</v>
+        <v>257.1360827873875</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.8735962063513</v>
+        <v>232.595375938993</v>
       </c>
       <c r="AD3" t="n">
-        <v>164724.9336197852</v>
+        <v>187931.4368057735</v>
       </c>
       <c r="AE3" t="n">
-        <v>225383.9213296698</v>
+        <v>257136.0827873875</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.964092833446078e-06</v>
+        <v>7.62177350517967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>203873.5962063513</v>
+        <v>232595.375938993</v>
       </c>
     </row>
     <row r="4">
@@ -13438,28 +13438,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.4224358035751</v>
+        <v>159.7141903355839</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.6591951994699</v>
+        <v>218.5280013098368</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.8447035875108</v>
+        <v>197.6719955708648</v>
       </c>
       <c r="AD4" t="n">
-        <v>136422.4358035751</v>
+        <v>159714.1903355839</v>
       </c>
       <c r="AE4" t="n">
-        <v>186659.1951994699</v>
+        <v>218528.0013098368</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.353520882855358e-06</v>
+        <v>8.370528015699339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>168844.7035875108</v>
+        <v>197671.9955708648</v>
       </c>
     </row>
     <row r="5">
@@ -13544,28 +13544,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.5494734609487</v>
+        <v>151.6706357923653</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.8870607917086</v>
+        <v>207.5224551272287</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.1006465688373</v>
+        <v>187.7168032695402</v>
       </c>
       <c r="AD5" t="n">
-        <v>128549.4734609486</v>
+        <v>151670.6357923653</v>
       </c>
       <c r="AE5" t="n">
-        <v>175887.0607917086</v>
+        <v>207522.4551272287</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.56022780943214e-06</v>
+        <v>8.767964060341726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.479817708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>159100.6465688373</v>
+        <v>187716.8032695402</v>
       </c>
     </row>
     <row r="6">
@@ -13650,28 +13650,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.8819694167024</v>
+        <v>147.0031317481191</v>
       </c>
       <c r="AB6" t="n">
-        <v>169.5007758426285</v>
+        <v>201.1361701781486</v>
       </c>
       <c r="AC6" t="n">
-        <v>153.3238596920881</v>
+        <v>181.9400163927911</v>
       </c>
       <c r="AD6" t="n">
-        <v>123881.9694167024</v>
+        <v>147003.1317481191</v>
       </c>
       <c r="AE6" t="n">
-        <v>169500.7758426285</v>
+        <v>201136.1701781486</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.679181795481045e-06</v>
+        <v>8.996677255843478e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>153323.8596920882</v>
+        <v>181940.0163927911</v>
       </c>
     </row>
     <row r="7">
@@ -13756,28 +13756,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.8243867076933</v>
+        <v>142.9455490391099</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.9490121722496</v>
+        <v>195.5844065077697</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.3019485544592</v>
+        <v>176.9181052551621</v>
       </c>
       <c r="AD7" t="n">
-        <v>119824.3867076933</v>
+        <v>142945.5490391099</v>
       </c>
       <c r="AE7" t="n">
-        <v>163949.0121722496</v>
+        <v>195584.4065077697</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.775710030061711e-06</v>
+        <v>9.182272389898177e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.323567708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>148301.9485544592</v>
+        <v>176918.1052551621</v>
       </c>
     </row>
     <row r="8">
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.4020319606608</v>
+        <v>129.0479987352163</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.6346395406123</v>
+        <v>176.5691650653442</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.3038949950331</v>
+        <v>159.7176517679366</v>
       </c>
       <c r="AD8" t="n">
-        <v>117402.0319606608</v>
+        <v>129047.9987352163</v>
       </c>
       <c r="AE8" t="n">
-        <v>160634.6395406123</v>
+        <v>176569.1650653442</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.823876644084792e-06</v>
+        <v>9.27488248709315e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.289388020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>145303.8949950331</v>
+        <v>159717.6517679367</v>
       </c>
     </row>
     <row r="9">
@@ -13968,28 +13968,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.8342603475084</v>
+        <v>126.4802271220638</v>
       </c>
       <c r="AB9" t="n">
-        <v>157.1213011374104</v>
+        <v>173.0558266621422</v>
       </c>
       <c r="AC9" t="n">
-        <v>142.1258646780302</v>
+        <v>156.5396214509337</v>
       </c>
       <c r="AD9" t="n">
-        <v>114834.2603475084</v>
+        <v>126480.2271220638</v>
       </c>
       <c r="AE9" t="n">
-        <v>157121.3011374104</v>
+        <v>173055.8266621422</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.872043258107873e-06</v>
+        <v>9.367492584288121e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.2568359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>142125.8646780302</v>
+        <v>156539.6214509337</v>
       </c>
     </row>
     <row r="10">
@@ -14074,28 +14074,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>111.8346153798806</v>
+        <v>123.480582154436</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.0170545577078</v>
+        <v>168.9515800824397</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.4133216315469</v>
+        <v>152.8270784044504</v>
       </c>
       <c r="AD10" t="n">
-        <v>111834.6153798806</v>
+        <v>123480.582154436</v>
       </c>
       <c r="AE10" t="n">
-        <v>153017.0545577078</v>
+        <v>168951.5800824397</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.926352577967905e-06</v>
+        <v>9.471913280922936e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.221028645833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>138413.3216315469</v>
+        <v>152827.0784044504</v>
       </c>
     </row>
     <row r="11">
@@ -14180,28 +14180,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>110.7263973686378</v>
+        <v>122.3723641431932</v>
       </c>
       <c r="AB11" t="n">
-        <v>151.5007417835981</v>
+        <v>167.4352673083299</v>
       </c>
       <c r="AC11" t="n">
-        <v>137.0417236204393</v>
+        <v>151.455480393343</v>
       </c>
       <c r="AD11" t="n">
-        <v>110726.3973686378</v>
+        <v>122372.3641431932</v>
       </c>
       <c r="AE11" t="n">
-        <v>151500.7417835981</v>
+        <v>167435.2673083299</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.938930499443567e-06</v>
+        <v>9.49609688929976e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.212890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>137041.7236204394</v>
+        <v>151455.480393343</v>
       </c>
     </row>
     <row r="12">
@@ -14286,28 +14286,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>111.2251461672872</v>
+        <v>122.8711129418427</v>
       </c>
       <c r="AB12" t="n">
-        <v>152.183151893154</v>
+        <v>168.1176774178859</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.6590054669081</v>
+        <v>152.0727622398117</v>
       </c>
       <c r="AD12" t="n">
-        <v>111225.1461672872</v>
+        <v>122871.1129418427</v>
       </c>
       <c r="AE12" t="n">
-        <v>152183.151893154</v>
+        <v>168117.6774178859</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.938150473305542e-06</v>
+        <v>9.494597130640733e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.212890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>137659.0054669081</v>
+        <v>152072.7622398117</v>
       </c>
     </row>
   </sheetData>
@@ -14583,28 +14583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.2733834867598</v>
+        <v>394.6372906594401</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.2054491927404</v>
+        <v>539.9601512487627</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.4209291294535</v>
+        <v>488.4271122524121</v>
       </c>
       <c r="AD2" t="n">
-        <v>358273.3834867598</v>
+        <v>394637.2906594401</v>
       </c>
       <c r="AE2" t="n">
-        <v>490205.4491927404</v>
+        <v>539960.1512487627</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.353468912464988e-06</v>
+        <v>4.384334081720713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5087890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>443420.9291294535</v>
+        <v>488427.1122524121</v>
       </c>
     </row>
     <row r="3">
@@ -14689,28 +14689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.5259452200494</v>
+        <v>219.6264047527676</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.5272242458594</v>
+        <v>300.502536215743</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.9948014407304</v>
+        <v>271.8229959173597</v>
       </c>
       <c r="AD3" t="n">
-        <v>195525.9452200494</v>
+        <v>219626.4047527676</v>
       </c>
       <c r="AE3" t="n">
-        <v>267527.2242458594</v>
+        <v>300502.536215743</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.540602789452767e-06</v>
+        <v>6.595874454689285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.326171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>241994.8014407304</v>
+        <v>271822.9959173597</v>
       </c>
     </row>
     <row r="4">
@@ -14795,28 +14795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.5534883963268</v>
+        <v>182.7391992750655</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.9398777099904</v>
+        <v>250.0318343325233</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.2354402584418</v>
+        <v>226.1691469857834</v>
       </c>
       <c r="AD4" t="n">
-        <v>158553.4883963268</v>
+        <v>182739.1992750655</v>
       </c>
       <c r="AE4" t="n">
-        <v>216939.8777099904</v>
+        <v>250031.8343325233</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.985942690031977e-06</v>
+        <v>7.425508912029325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.8427734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>196235.4402584418</v>
+        <v>226169.1469857834</v>
       </c>
     </row>
     <row r="5">
@@ -14901,28 +14901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.2715859731963</v>
+        <v>172.457296851935</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.8717252091493</v>
+        <v>235.9636818316821</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.5099324875004</v>
+        <v>213.443639214842</v>
       </c>
       <c r="AD5" t="n">
-        <v>148271.5859731963</v>
+        <v>172457.296851935</v>
       </c>
       <c r="AE5" t="n">
-        <v>202871.7252091493</v>
+        <v>235963.6818316821</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.21256536133264e-06</v>
+        <v>7.847689760143192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.636067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>183509.9324875004</v>
+        <v>213443.639214842</v>
       </c>
     </row>
     <row r="6">
@@ -15007,28 +15007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.109934566641</v>
+        <v>166.2956454453798</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.4410819218296</v>
+        <v>227.5330385443623</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.8838979630376</v>
+        <v>205.8176046903792</v>
       </c>
       <c r="AD6" t="n">
-        <v>142109.934566641</v>
+        <v>166295.6454453798</v>
       </c>
       <c r="AE6" t="n">
-        <v>194441.0819218296</v>
+        <v>227533.0385443624</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.355992666591034e-06</v>
+        <v>8.114883951391338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.517252604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>175883.8979630376</v>
+        <v>205817.6046903792</v>
       </c>
     </row>
     <row r="7">
@@ -15113,28 +15113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.920409086231</v>
+        <v>161.9355277643775</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.7087883307158</v>
+        <v>221.5673331784017</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.6986864269333</v>
+        <v>200.4212578716239</v>
       </c>
       <c r="AD7" t="n">
-        <v>137920.409086231</v>
+        <v>161935.5277643775</v>
       </c>
       <c r="AE7" t="n">
-        <v>188708.7883307158</v>
+        <v>221567.3331784017</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.452551994146881e-06</v>
+        <v>8.29476665494816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.440755208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>170698.6864269333</v>
+        <v>200421.2578716238</v>
       </c>
     </row>
     <row r="8">
@@ -15219,28 +15219,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.7932693363768</v>
+        <v>158.8083880145233</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.4300977652984</v>
+        <v>217.2886426129843</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.8283480838981</v>
+        <v>196.5509195285887</v>
       </c>
       <c r="AD8" t="n">
-        <v>134793.2693363768</v>
+        <v>158808.3880145233</v>
       </c>
       <c r="AE8" t="n">
-        <v>184430.0977652984</v>
+        <v>217288.6426129843</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.51560730551376e-06</v>
+        <v>8.412233917504758e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>166828.3480838981</v>
+        <v>196550.9195285887</v>
       </c>
     </row>
     <row r="9">
@@ -15325,28 +15325,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.7269166303308</v>
+        <v>155.7420353084774</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.2345787149545</v>
+        <v>213.0931235626404</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.0332434832697</v>
+        <v>192.7558149279602</v>
       </c>
       <c r="AD9" t="n">
-        <v>131726.9166303308</v>
+        <v>155742.0353084774</v>
       </c>
       <c r="AE9" t="n">
-        <v>180234.5787149545</v>
+        <v>213093.1235626405</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.584591698397227e-06</v>
+        <v>8.54074660922713e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.341471354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>163033.2434832697</v>
+        <v>192755.8149279603</v>
       </c>
     </row>
     <row r="10">
@@ -15431,28 +15431,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>130.0100167967559</v>
+        <v>154.0251354749025</v>
       </c>
       <c r="AB10" t="n">
-        <v>177.8854406183835</v>
+        <v>210.7439854660695</v>
       </c>
       <c r="AC10" t="n">
-        <v>160.9083038295987</v>
+        <v>190.6308752742892</v>
       </c>
       <c r="AD10" t="n">
-        <v>130010.0167967559</v>
+        <v>154025.1354749025</v>
       </c>
       <c r="AE10" t="n">
-        <v>177885.4406183835</v>
+        <v>210743.9854660695</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.617342815345994e-06</v>
+        <v>8.601759456047571e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.317057291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>160908.3038295986</v>
+        <v>190630.8752742892</v>
       </c>
     </row>
     <row r="11">
@@ -15537,28 +15537,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.7819837095687</v>
+        <v>139.8749286574891</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.836947454613</v>
+        <v>191.3830482354277</v>
       </c>
       <c r="AC11" t="n">
-        <v>158.1507545747904</v>
+        <v>173.1177187196877</v>
       </c>
       <c r="AD11" t="n">
-        <v>127781.9837095687</v>
+        <v>139874.9286574891</v>
       </c>
       <c r="AE11" t="n">
-        <v>174836.947454613</v>
+        <v>191383.0482354277</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.651317393560088e-06</v>
+        <v>8.665051518410156e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.292643229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>158150.7545747904</v>
+        <v>173117.7187196877</v>
       </c>
     </row>
     <row r="12">
@@ -15643,28 +15643,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.9388579999766</v>
+        <v>138.0318029478971</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.3151015457829</v>
+        <v>188.8612023265976</v>
       </c>
       <c r="AC12" t="n">
-        <v>155.8695901000653</v>
+        <v>170.8365542449626</v>
       </c>
       <c r="AD12" t="n">
-        <v>125938.8579999767</v>
+        <v>138031.8029478971</v>
       </c>
       <c r="AE12" t="n">
-        <v>172315.1015457828</v>
+        <v>188861.2023265976</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.68359794848373e-06</v>
+        <v>8.725187743868238e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.269856770833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>155869.5901000653</v>
+        <v>170836.5542449626</v>
       </c>
     </row>
     <row r="13">
@@ -15749,28 +15749,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.6834400328278</v>
+        <v>136.7763849807482</v>
       </c>
       <c r="AB13" t="n">
-        <v>170.5973832979989</v>
+        <v>187.1434840788136</v>
       </c>
       <c r="AC13" t="n">
-        <v>154.3158084710165</v>
+        <v>169.2827726159139</v>
       </c>
       <c r="AD13" t="n">
-        <v>124683.4400328278</v>
+        <v>136776.3849807482</v>
       </c>
       <c r="AE13" t="n">
-        <v>170597.3832979989</v>
+        <v>187143.4840788136</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.702608654298819e-06</v>
+        <v>8.760603246907689e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.2568359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>154315.8084710165</v>
+        <v>169282.7726159139</v>
       </c>
     </row>
     <row r="14">
@@ -15855,28 +15855,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>122.9593518893131</v>
+        <v>135.0522968372335</v>
       </c>
       <c r="AB14" t="n">
-        <v>168.2384098386424</v>
+        <v>184.7845106194572</v>
       </c>
       <c r="AC14" t="n">
-        <v>152.1819721277803</v>
+        <v>167.1489362726776</v>
       </c>
       <c r="AD14" t="n">
-        <v>122959.3518893131</v>
+        <v>135052.2968372335</v>
       </c>
       <c r="AE14" t="n">
-        <v>168238.4098386424</v>
+        <v>184784.5106194572</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.717196077077723e-06</v>
+        <v>8.787778509140933e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.2470703125</v>
       </c>
       <c r="AH14" t="n">
-        <v>152181.9721277803</v>
+        <v>167148.9362726776</v>
       </c>
     </row>
     <row r="15">
@@ -15961,28 +15961,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>121.1979815078421</v>
+        <v>133.2909264557625</v>
       </c>
       <c r="AB15" t="n">
-        <v>165.828425176538</v>
+        <v>182.3745259573528</v>
       </c>
       <c r="AC15" t="n">
-        <v>150.0019930193916</v>
+        <v>164.968957164289</v>
       </c>
       <c r="AD15" t="n">
-        <v>121197.9815078421</v>
+        <v>133290.9264557625</v>
       </c>
       <c r="AE15" t="n">
-        <v>165828.425176538</v>
+        <v>182374.5259573528</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.738653705423467e-06</v>
+        <v>8.82775244326467e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.232421875</v>
       </c>
       <c r="AH15" t="n">
-        <v>150001.9930193916</v>
+        <v>164968.957164289</v>
       </c>
     </row>
     <row r="16">
@@ -16067,28 +16067,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>121.253335092378</v>
+        <v>133.3462800402984</v>
       </c>
       <c r="AB16" t="n">
-        <v>165.9041623929278</v>
+        <v>182.4502631737426</v>
       </c>
       <c r="AC16" t="n">
-        <v>150.0705019821471</v>
+        <v>165.0374661270444</v>
       </c>
       <c r="AD16" t="n">
-        <v>121253.335092378</v>
+        <v>133346.2800402984</v>
       </c>
       <c r="AE16" t="n">
-        <v>165904.1623929279</v>
+        <v>182450.2631737426</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.737242019348088e-06</v>
+        <v>8.825122579177582e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.234049479166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>150070.5019821471</v>
+        <v>165037.4661270444</v>
       </c>
     </row>
     <row r="17">
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>121.5619906804427</v>
+        <v>133.6549356283631</v>
       </c>
       <c r="AB17" t="n">
-        <v>166.3264785854412</v>
+        <v>182.872579366256</v>
       </c>
       <c r="AC17" t="n">
-        <v>150.4525129099716</v>
+        <v>165.419477054869</v>
       </c>
       <c r="AD17" t="n">
-        <v>121561.9906804427</v>
+        <v>133654.9356283631</v>
       </c>
       <c r="AE17" t="n">
-        <v>166326.4785854412</v>
+        <v>182872.579366256</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.736489120107887e-06</v>
+        <v>8.823719984997801e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.234049479166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>150452.5129099716</v>
+        <v>165419.477054869</v>
       </c>
     </row>
   </sheetData>
@@ -16470,28 +16470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.1595727278789</v>
+        <v>215.4356823406339</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.2387637193442</v>
+        <v>294.7686049298401</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.4517659188444</v>
+        <v>266.6363029857584</v>
       </c>
       <c r="AD2" t="n">
-        <v>182159.5727278789</v>
+        <v>215435.6823406339</v>
       </c>
       <c r="AE2" t="n">
-        <v>249238.7637193442</v>
+        <v>294768.6049298401</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.493687669632624e-06</v>
+        <v>7.003087692850193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.742838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225451.7659188444</v>
+        <v>266636.3029857584</v>
       </c>
     </row>
     <row r="3">
@@ -16576,28 +16576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.2927730767622</v>
+        <v>147.53374005498</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.4310996505862</v>
+        <v>201.8621718723818</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.0699561050414</v>
+        <v>182.5967295042767</v>
       </c>
       <c r="AD3" t="n">
-        <v>125292.7730767622</v>
+        <v>147533.74005498</v>
       </c>
       <c r="AE3" t="n">
-        <v>171431.0996505862</v>
+        <v>201862.1718723818</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.46469948129219e-06</v>
+        <v>8.949478300960943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>155069.9561050414</v>
+        <v>182596.7295042766</v>
       </c>
     </row>
     <row r="4">
@@ -16682,28 +16682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.3834102951704</v>
+        <v>136.453785072796</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.5044282057013</v>
+        <v>186.7020886526501</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.5678652331367</v>
+        <v>168.8835033497209</v>
       </c>
       <c r="AD4" t="n">
-        <v>114383.4102951704</v>
+        <v>136453.785072796</v>
       </c>
       <c r="AE4" t="n">
-        <v>156504.4282057013</v>
+        <v>186702.0886526501</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.792849955128697e-06</v>
+        <v>9.607255057796523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.45703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>141567.8652331367</v>
+        <v>168883.5033497208</v>
       </c>
     </row>
     <row r="5">
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.7757714388206</v>
+        <v>130.8461462164462</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.8318093308811</v>
+        <v>179.0294697778299</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.6275103351387</v>
+        <v>161.9431484517229</v>
       </c>
       <c r="AD5" t="n">
-        <v>108775.7714388206</v>
+        <v>130846.1462164462</v>
       </c>
       <c r="AE5" t="n">
-        <v>148831.8093308811</v>
+        <v>179029.4697778299</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.957688806242972e-06</v>
+        <v>9.937674098850451e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.343098958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>134627.5103351386</v>
+        <v>161943.1484517229</v>
       </c>
     </row>
     <row r="6">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.4439699708364</v>
+        <v>115.5645429684963</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.9048474567948</v>
+        <v>158.120506037241</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.26620938377</v>
+        <v>143.0297068646142</v>
       </c>
       <c r="AD6" t="n">
-        <v>104443.9699708364</v>
+        <v>115564.5429684963</v>
       </c>
       <c r="AE6" t="n">
-        <v>142904.8474567948</v>
+        <v>158120.506037241</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.071416413836947e-06</v>
+        <v>1.0165640787459e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>129266.20938377</v>
+        <v>143029.7068646142</v>
       </c>
     </row>
     <row r="7">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.9104944086027</v>
+        <v>112.0310674062626</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.0701903066092</v>
+        <v>153.2858488870554</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.8929651265126</v>
+        <v>138.6564626073568</v>
       </c>
       <c r="AD7" t="n">
-        <v>100910.4944086027</v>
+        <v>112031.0674062626</v>
       </c>
       <c r="AE7" t="n">
-        <v>138070.1903066092</v>
+        <v>153285.8488870554</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.152766779519655e-06</v>
+        <v>1.032870738029537e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.216145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>124892.9651265126</v>
+        <v>138656.4626073568</v>
       </c>
     </row>
     <row r="8">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.6315231202248</v>
+        <v>111.7520961178848</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.6884894825061</v>
+        <v>152.9041480629523</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.5476932933414</v>
+        <v>138.3111907741856</v>
       </c>
       <c r="AD8" t="n">
-        <v>100631.5231202248</v>
+        <v>111752.0961178848</v>
       </c>
       <c r="AE8" t="n">
-        <v>137688.4894825061</v>
+        <v>152904.1480629523</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.157552095148049e-06</v>
+        <v>1.033829953281516e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.212890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>124547.6932933414</v>
+        <v>138311.1907741856</v>
       </c>
     </row>
   </sheetData>
@@ -17403,28 +17403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.9121179500141</v>
+        <v>164.1173646177373</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.5386646167932</v>
+        <v>224.5526186170157</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.8767289060613</v>
+        <v>203.1216318578519</v>
       </c>
       <c r="AD2" t="n">
-        <v>142912.1179500141</v>
+        <v>164117.3646177373</v>
       </c>
       <c r="AE2" t="n">
-        <v>195538.6646167932</v>
+        <v>224552.6186170157</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.083115976677669e-06</v>
+        <v>8.542133972777475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.226888020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>176876.7289060613</v>
+        <v>203121.6318578519</v>
       </c>
     </row>
     <row r="3">
@@ -17509,28 +17509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.4983428540327</v>
+        <v>125.6182486671843</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.9792428343462</v>
+        <v>171.876429712371</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.3335045709025</v>
+        <v>155.4727844907543</v>
       </c>
       <c r="AD3" t="n">
-        <v>104498.3428540327</v>
+        <v>125618.2486671843</v>
       </c>
       <c r="AE3" t="n">
-        <v>142979.2428343462</v>
+        <v>171876.429712371</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.93263827526174e-06</v>
+        <v>1.03193877487703e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.499348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129333.5045709025</v>
+        <v>155472.7844907543</v>
       </c>
     </row>
     <row r="4">
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.30663686541196</v>
+        <v>117.4265426785636</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.7709893081586</v>
+        <v>160.6681761861834</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.194951030368</v>
+        <v>145.3342309502198</v>
       </c>
       <c r="AD4" t="n">
-        <v>96306.63686541196</v>
+        <v>117426.5426785636</v>
       </c>
       <c r="AE4" t="n">
-        <v>131770.9893081586</v>
+        <v>160668.1761861834</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.220054683396924e-06</v>
+        <v>1.092068084901256e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>119194.951030368</v>
+        <v>145334.2309502198</v>
       </c>
     </row>
     <row r="5">
@@ -17721,28 +17721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.24964619487203</v>
+        <v>102.894984710295</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.2200356909322</v>
+        <v>140.7854574869164</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.1737726355556</v>
+        <v>127.3490910180336</v>
       </c>
       <c r="AD5" t="n">
-        <v>92249.64619487202</v>
+        <v>102894.984710295</v>
       </c>
       <c r="AE5" t="n">
-        <v>126220.0356909322</v>
+        <v>140785.4574869164</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.329612303176867e-06</v>
+        <v>1.114988224109753e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.238932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>114173.7726355556</v>
+        <v>127349.0910180336</v>
       </c>
     </row>
     <row r="6">
@@ -17827,28 +17827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.06495970655402</v>
+        <v>102.710298221977</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.9673394898228</v>
+        <v>140.532761285807</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.9451934052187</v>
+        <v>127.1205117876967</v>
       </c>
       <c r="AD6" t="n">
-        <v>92064.95970655401</v>
+        <v>102710.298221977</v>
       </c>
       <c r="AE6" t="n">
-        <v>125967.3394898228</v>
+        <v>140532.761285807</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.349445095915347e-06</v>
+        <v>1.119137368380797e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.2275390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>113945.1934052187</v>
+        <v>127120.5117876967</v>
       </c>
     </row>
   </sheetData>
@@ -33041,28 +33041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3869055504706</v>
+        <v>128.9176759562583</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2997458668887</v>
+        <v>176.3908516897387</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1462262613937</v>
+        <v>159.5563563706345</v>
       </c>
       <c r="AD2" t="n">
-        <v>108386.9055504706</v>
+        <v>128917.6759562583</v>
       </c>
       <c r="AE2" t="n">
-        <v>148299.7458668887</v>
+        <v>176390.8516897387</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.58134631971762e-06</v>
+        <v>9.959186130830474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.898111979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134146.2262613937</v>
+        <v>159556.3563706345</v>
       </c>
     </row>
     <row r="3">
@@ -33147,28 +33147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.75962893571291</v>
+        <v>110.1198071409084</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.8130842251439</v>
+        <v>150.6707782731471</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.0919758359747</v>
+        <v>136.2909706625644</v>
       </c>
       <c r="AD3" t="n">
-        <v>89759.62893571291</v>
+        <v>110119.8071409084</v>
       </c>
       <c r="AE3" t="n">
-        <v>122813.0842251439</v>
+        <v>150670.7782731471</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.311478504154634e-06</v>
+        <v>1.154638819272704e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.362630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>111091.9758359746</v>
+        <v>136290.9706625644</v>
       </c>
     </row>
     <row r="4">
@@ -33253,28 +33253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.70526141478196</v>
+        <v>95.97073612622685</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.2657197169376</v>
+        <v>131.311395097911</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.0740440106548</v>
+        <v>118.7792198465018</v>
       </c>
       <c r="AD4" t="n">
-        <v>85705.26141478195</v>
+        <v>95970.73612622685</v>
       </c>
       <c r="AE4" t="n">
-        <v>117265.7197169376</v>
+        <v>131311.395097911</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.459150618392382e-06</v>
+        <v>1.186740607030973e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.271484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>106074.0440106548</v>
+        <v>118779.2198465018</v>
       </c>
     </row>
     <row r="5">
@@ -33359,28 +33359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.13253410827063</v>
+        <v>96.39800881971553</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.8503330661094</v>
+        <v>131.8960084470828</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.6028626822919</v>
+        <v>119.3080385181388</v>
       </c>
       <c r="AD5" t="n">
-        <v>86132.53410827063</v>
+        <v>96398.00881971553</v>
       </c>
       <c r="AE5" t="n">
-        <v>117850.3330661094</v>
+        <v>131896.0084470828</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.458711771098957e-06</v>
+        <v>1.186645207958883e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.271484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>106602.8626822919</v>
+        <v>119308.0385181388</v>
       </c>
     </row>
   </sheetData>
@@ -33656,28 +33656,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.68514166327932</v>
+        <v>92.53930414476801</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.8192615826825</v>
+        <v>126.6163584767865</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.19721275797886</v>
+        <v>114.5322709309707</v>
       </c>
       <c r="AD2" t="n">
-        <v>73685.14166327933</v>
+        <v>92539.30414476802</v>
       </c>
       <c r="AE2" t="n">
-        <v>100819.2615826825</v>
+        <v>126616.3584767865</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.527384694023614e-06</v>
+        <v>1.314703353249986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.466796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>91197.21275797886</v>
+        <v>114532.2709309707</v>
       </c>
     </row>
     <row r="3">
@@ -33762,28 +33762,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.92323959837371</v>
+        <v>92.7774020798624</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.145037681618</v>
+        <v>126.9421345757221</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.49189724326172</v>
+        <v>114.8269554162535</v>
       </c>
       <c r="AD3" t="n">
-        <v>73923.23959837371</v>
+        <v>92777.4020798624</v>
       </c>
       <c r="AE3" t="n">
-        <v>101145.037681618</v>
+        <v>126942.1345757221</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.543752535362968e-06</v>
+        <v>1.318596488446018e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.45703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>91491.89724326172</v>
+        <v>114826.9554162535</v>
       </c>
     </row>
   </sheetData>
@@ -34059,28 +34059,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.3129106479596</v>
+        <v>274.7120873508312</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.8067262057609</v>
+        <v>375.8731973553548</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.4258737399194</v>
+        <v>340.0003869411048</v>
       </c>
       <c r="AD2" t="n">
-        <v>240312.9106479596</v>
+        <v>274712.0873508311</v>
       </c>
       <c r="AE2" t="n">
-        <v>328806.7262057608</v>
+        <v>375873.1973553548</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.011021448767112e-06</v>
+        <v>5.843122568119748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.323893229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297425.8737399195</v>
+        <v>340000.3869411048</v>
       </c>
     </row>
     <row r="3">
@@ -34165,28 +34165,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8778548984648</v>
+        <v>168.9243675007717</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.5965167487415</v>
+        <v>231.12977203158</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.5473053257689</v>
+        <v>209.0710709816251</v>
       </c>
       <c r="AD3" t="n">
-        <v>145877.8548984648</v>
+        <v>168924.3675007717</v>
       </c>
       <c r="AE3" t="n">
-        <v>199596.5167487415</v>
+        <v>231129.77203158</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.081068513860762e-06</v>
+        <v>7.919632570251786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.927408854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180547.3053257689</v>
+        <v>209071.0709816251</v>
       </c>
     </row>
     <row r="4">
@@ -34271,28 +34271,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.529467851029</v>
+        <v>153.5759804533358</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.5961764674028</v>
+        <v>210.1294317502412</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.5512080467118</v>
+        <v>190.0749737025679</v>
       </c>
       <c r="AD4" t="n">
-        <v>130529.467851029</v>
+        <v>153575.9804533358</v>
       </c>
       <c r="AE4" t="n">
-        <v>178596.1764674028</v>
+        <v>210129.4317502412</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.466013661794784e-06</v>
+        <v>8.666648730599121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.5888671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>161551.2080467118</v>
+        <v>190074.9737025679</v>
       </c>
     </row>
     <row r="5">
@@ -34377,28 +34377,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.400491431206</v>
+        <v>146.2764118329206</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.8419964215631</v>
+        <v>200.1418399295547</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.7279532543663</v>
+        <v>181.0405836275714</v>
       </c>
       <c r="AD5" t="n">
-        <v>123400.491431206</v>
+        <v>146276.4118329206</v>
       </c>
       <c r="AE5" t="n">
-        <v>168841.9964215631</v>
+        <v>200141.8399295547</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.659027857228573e-06</v>
+        <v>9.041207869581156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.440755208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>152727.9532543663</v>
+        <v>181040.5836275714</v>
       </c>
     </row>
     <row r="6">
@@ -34483,28 +34483,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.8534847428405</v>
+        <v>141.7294051445552</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.6205812707671</v>
+        <v>193.9204247787587</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.1003012337492</v>
+        <v>175.4129316069543</v>
       </c>
       <c r="AD6" t="n">
-        <v>118853.4847428405</v>
+        <v>141729.4051445551</v>
       </c>
       <c r="AE6" t="n">
-        <v>162620.5812707671</v>
+        <v>193920.4247787587</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.783206888066332e-06</v>
+        <v>9.282186989099699e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.351236979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>147100.3012337492</v>
+        <v>175412.9316069543</v>
       </c>
     </row>
     <row r="7">
@@ -34589,28 +34589,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.6565759454962</v>
+        <v>138.5324963472109</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.2464296165806</v>
+        <v>189.5462731245723</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.1436124742766</v>
+        <v>171.4562428474817</v>
       </c>
       <c r="AD7" t="n">
-        <v>115656.5759454962</v>
+        <v>138532.4963472109</v>
       </c>
       <c r="AE7" t="n">
-        <v>158246.4296165806</v>
+        <v>189546.2731245722</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.854897874941739e-06</v>
+        <v>9.421308955007313e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.30078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>143143.6124742765</v>
+        <v>171456.2428474817</v>
       </c>
     </row>
     <row r="8">
@@ -34695,28 +34695,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.332140088737</v>
+        <v>123.8554858984415</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.6977898136059</v>
+        <v>169.4645399245735</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.0290884700403</v>
+        <v>153.2910820791949</v>
       </c>
       <c r="AD8" t="n">
-        <v>112332.140088737</v>
+        <v>123855.4858984415</v>
       </c>
       <c r="AE8" t="n">
-        <v>153697.7898136059</v>
+        <v>169464.5399245735</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.922452843343565e-06</v>
+        <v>9.552404653651024e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.2568359375</v>
       </c>
       <c r="AH8" t="n">
-        <v>139029.0884700402</v>
+        <v>153291.0820791949</v>
       </c>
     </row>
     <row r="9">
@@ -34801,28 +34801,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>110.0399588232017</v>
+        <v>121.5633046329061</v>
       </c>
       <c r="AB9" t="n">
-        <v>150.5615262822016</v>
+        <v>166.3282763931692</v>
       </c>
       <c r="AC9" t="n">
-        <v>136.1921455282986</v>
+        <v>150.4541391374533</v>
       </c>
       <c r="AD9" t="n">
-        <v>110039.9588232017</v>
+        <v>121563.3046329061</v>
       </c>
       <c r="AE9" t="n">
-        <v>150561.5262822016</v>
+        <v>166328.2763931692</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.958495290041916e-06</v>
+        <v>9.622347839807874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.232421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>136192.1455282986</v>
+        <v>150454.1391374533</v>
       </c>
     </row>
     <row r="10">
@@ -34907,28 +34907,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>108.4321587494595</v>
+        <v>119.955504559164</v>
       </c>
       <c r="AB10" t="n">
-        <v>148.3616632901755</v>
+        <v>164.1284134011431</v>
       </c>
       <c r="AC10" t="n">
-        <v>134.2022343727037</v>
+        <v>148.4642279818584</v>
       </c>
       <c r="AD10" t="n">
-        <v>108432.1587494595</v>
+        <v>119955.504559164</v>
       </c>
       <c r="AE10" t="n">
-        <v>148361.6632901755</v>
+        <v>164128.4134011431</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.990204765006039e-06</v>
+        <v>9.683882555497781e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.211263020833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>134202.2343727037</v>
+        <v>148464.2279818584</v>
       </c>
     </row>
     <row r="11">
@@ -35013,28 +35013,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>108.6994154177252</v>
+        <v>120.2227612274296</v>
       </c>
       <c r="AB11" t="n">
-        <v>148.7273356542285</v>
+        <v>164.4940857651961</v>
       </c>
       <c r="AC11" t="n">
-        <v>134.5330074795559</v>
+        <v>148.7950010887106</v>
       </c>
       <c r="AD11" t="n">
-        <v>108699.4154177252</v>
+        <v>120222.7612274296</v>
       </c>
       <c r="AE11" t="n">
-        <v>148727.3356542285</v>
+        <v>164494.0857651961</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.986167223162781e-06</v>
+        <v>9.6760473898354e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.214518229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>134533.0074795559</v>
+        <v>148795.0010887106</v>
       </c>
     </row>
   </sheetData>
@@ -35310,28 +35310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.3669965715931</v>
+        <v>370.2422373379459</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.4956759400538</v>
+        <v>506.5817630604986</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.8329307275482</v>
+        <v>458.2343105859739</v>
       </c>
       <c r="AD2" t="n">
-        <v>334366.9965715931</v>
+        <v>370242.237337946</v>
       </c>
       <c r="AE2" t="n">
-        <v>457495.6759400538</v>
+        <v>506581.7630604986</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.468509219248938e-06</v>
+        <v>4.631891516816592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.256510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>413832.9307275482</v>
+        <v>458234.3105859739</v>
       </c>
     </row>
     <row r="3">
@@ -35416,28 +35416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.9512449040885</v>
+        <v>211.8396549663166</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.1631851013738</v>
+        <v>289.8483616307705</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.6198916461708</v>
+        <v>262.1856408015456</v>
       </c>
       <c r="AD3" t="n">
-        <v>187951.2449040885</v>
+        <v>211839.6549663166</v>
       </c>
       <c r="AE3" t="n">
-        <v>257163.1851013738</v>
+        <v>289848.3616307705</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.635245883634657e-06</v>
+        <v>6.821147127444355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.248046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>232619.8916461708</v>
+        <v>262185.6408015456</v>
       </c>
     </row>
     <row r="4">
@@ -35522,28 +35522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.0977728425827</v>
+        <v>177.0714342508314</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.4751270001784</v>
+        <v>242.2769481822243</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.4831148795284</v>
+        <v>219.1543762856154</v>
       </c>
       <c r="AD4" t="n">
-        <v>153097.7728425827</v>
+        <v>177071.4342508314</v>
       </c>
       <c r="AE4" t="n">
-        <v>209475.1270001784</v>
+        <v>242276.9481822243</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.070530233332688e-06</v>
+        <v>7.637911298729393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.7939453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>189483.1148795284</v>
+        <v>219154.3762856154</v>
       </c>
     </row>
     <row r="5">
@@ -35628,28 +35628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.0453326665614</v>
+        <v>167.0189940748101</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.7209348689917</v>
+        <v>228.5227560510377</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.041603541208</v>
+        <v>206.712864947295</v>
       </c>
       <c r="AD5" t="n">
-        <v>143045.3326665614</v>
+        <v>167018.9940748101</v>
       </c>
       <c r="AE5" t="n">
-        <v>195720.9348689918</v>
+        <v>228522.7560510377</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.300840919340344e-06</v>
+        <v>8.070064480266081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.590494791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>177041.603541208</v>
+        <v>206712.864947295</v>
       </c>
     </row>
     <row r="6">
@@ -35734,28 +35734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.4097680351827</v>
+        <v>161.2128372428391</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.0101067167787</v>
+        <v>220.5785161239777</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.0666860056243</v>
+        <v>199.5268121290603</v>
       </c>
       <c r="AD6" t="n">
-        <v>137409.7680351827</v>
+        <v>161212.8372428391</v>
       </c>
       <c r="AE6" t="n">
-        <v>188010.1067167787</v>
+        <v>220578.5161239777</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.436066600247188e-06</v>
+        <v>8.323800897113951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.4814453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>170066.6860056243</v>
+        <v>199526.8121290603</v>
       </c>
     </row>
     <row r="7">
@@ -35840,28 +35840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.5910975771903</v>
+        <v>157.3941667848467</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.7852333283054</v>
+        <v>215.3536427355044</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.3404672001894</v>
+        <v>194.8005933236254</v>
       </c>
       <c r="AD7" t="n">
-        <v>133591.0975771903</v>
+        <v>157394.1667848467</v>
       </c>
       <c r="AE7" t="n">
-        <v>182785.2333283054</v>
+        <v>215353.6427355044</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.52469873075034e-06</v>
+        <v>8.490109538051432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.4130859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>165340.4672001894</v>
+        <v>194800.5933236254</v>
       </c>
     </row>
     <row r="8">
@@ -35946,28 +35946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.6823926181719</v>
+        <v>154.4854618258283</v>
       </c>
       <c r="AB8" t="n">
-        <v>178.8054148803721</v>
+        <v>211.3738242875712</v>
       </c>
       <c r="AC8" t="n">
-        <v>161.7404770392153</v>
+        <v>191.2006031626514</v>
       </c>
       <c r="AD8" t="n">
-        <v>130682.3926181719</v>
+        <v>154485.4618258283</v>
       </c>
       <c r="AE8" t="n">
-        <v>178805.4148803721</v>
+        <v>211373.8242875712</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.590840695376355e-06</v>
+        <v>8.614217806502635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.3642578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>161740.4770392153</v>
+        <v>191200.6031626514</v>
       </c>
     </row>
     <row r="9">
@@ -36052,28 +36052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.109836536698</v>
+        <v>151.9129057443544</v>
       </c>
       <c r="AB9" t="n">
-        <v>175.285530156537</v>
+        <v>207.853939563736</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.5565251732327</v>
+        <v>188.0166512966687</v>
       </c>
       <c r="AD9" t="n">
-        <v>128109.836536698</v>
+        <v>151912.9057443544</v>
       </c>
       <c r="AE9" t="n">
-        <v>175285.530156537</v>
+        <v>207853.939563736</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.639237254858804e-06</v>
+        <v>8.705028734637664e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.328450520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>158556.5251732327</v>
+        <v>188016.6512966687</v>
       </c>
     </row>
     <row r="10">
@@ -36158,28 +36158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.7103401378058</v>
+        <v>137.6972603504811</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.0024333252643</v>
+        <v>188.4034663858356</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.5867624956803</v>
+        <v>170.4225039799504</v>
       </c>
       <c r="AD10" t="n">
-        <v>125710.3401378058</v>
+        <v>137697.2603504811</v>
       </c>
       <c r="AE10" t="n">
-        <v>172002.4333252643</v>
+        <v>188403.4663858356</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.687633814341254e-06</v>
+        <v>8.79583966277269e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>155586.7624956803</v>
+        <v>170422.5039799504</v>
       </c>
     </row>
     <row r="11">
@@ -36264,28 +36264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.5910399721773</v>
+        <v>135.5779601848527</v>
       </c>
       <c r="AB11" t="n">
-        <v>169.1027133417282</v>
+        <v>185.5037464022996</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.9637877175894</v>
+        <v>167.7995292018595</v>
       </c>
       <c r="AD11" t="n">
-        <v>123591.0399721773</v>
+        <v>135577.9601848527</v>
       </c>
       <c r="AE11" t="n">
-        <v>169102.7133417282</v>
+        <v>185503.7464022996</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.722270567696341e-06</v>
+        <v>8.860831797614426e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.271484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>152963.7877175894</v>
+        <v>167799.5292018595</v>
       </c>
     </row>
     <row r="12">
@@ -36370,28 +36370,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.5139661344668</v>
+        <v>133.5008863471422</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.2607692829436</v>
+        <v>182.661802343515</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.3930748110808</v>
+        <v>165.2288162953509</v>
       </c>
       <c r="AD12" t="n">
-        <v>121513.9661344668</v>
+        <v>133500.8863471422</v>
       </c>
       <c r="AE12" t="n">
-        <v>166260.7692829436</v>
+        <v>182661.802343515</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.738118068546476e-06</v>
+        <v>8.890567925062563e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.260091145833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>150393.0748110808</v>
+        <v>165228.8162953509</v>
       </c>
     </row>
     <row r="13">
@@ -36476,28 +36476,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>119.5480880461589</v>
+        <v>131.5350082588343</v>
       </c>
       <c r="AB13" t="n">
-        <v>163.5709681541019</v>
+        <v>179.9720012146732</v>
       </c>
       <c r="AC13" t="n">
-        <v>147.9599845268152</v>
+        <v>162.7957260110853</v>
       </c>
       <c r="AD13" t="n">
-        <v>119548.0880461589</v>
+        <v>131535.0082588343</v>
       </c>
       <c r="AE13" t="n">
-        <v>163570.9681541019</v>
+        <v>179972.0012146732</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.778068953923165e-06</v>
+        <v>8.96553145593481e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.232421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>147959.9845268152</v>
+        <v>162795.7260110853</v>
       </c>
     </row>
     <row r="14">
@@ -36582,28 +36582,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>118.3387339514753</v>
+        <v>130.3256541641506</v>
       </c>
       <c r="AB14" t="n">
-        <v>161.9162765288193</v>
+        <v>178.3173095893907</v>
       </c>
       <c r="AC14" t="n">
-        <v>146.4632143478748</v>
+        <v>161.2989558321449</v>
       </c>
       <c r="AD14" t="n">
-        <v>118338.7339514753</v>
+        <v>130325.6541641506</v>
       </c>
       <c r="AE14" t="n">
-        <v>161916.2765288193</v>
+        <v>178317.3095893907</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.790120646186441e-06</v>
+        <v>8.988145157646864e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.224283854166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>146463.2143478748</v>
+        <v>161298.9558321449</v>
       </c>
     </row>
     <row r="15">
@@ -36688,28 +36688,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>118.5176275223849</v>
+        <v>130.5045477350603</v>
       </c>
       <c r="AB15" t="n">
-        <v>162.1610466047651</v>
+        <v>178.5620796653365</v>
       </c>
       <c r="AC15" t="n">
-        <v>146.6846239113094</v>
+        <v>161.5203653955795</v>
       </c>
       <c r="AD15" t="n">
-        <v>118517.6275223849</v>
+        <v>130504.5477350603</v>
       </c>
       <c r="AE15" t="n">
-        <v>162161.0466047651</v>
+        <v>178562.0796653365</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.791449179191842e-06</v>
+        <v>8.990638006654495e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH15" t="n">
-        <v>146684.6239113094</v>
+        <v>161520.3653955795</v>
       </c>
     </row>
     <row r="16">
@@ -36794,28 +36794,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>118.8704723195719</v>
+        <v>130.8573925322472</v>
       </c>
       <c r="AB16" t="n">
-        <v>162.6438244226899</v>
+        <v>179.0448574832613</v>
       </c>
       <c r="AC16" t="n">
-        <v>147.1213260918746</v>
+        <v>161.9570675761446</v>
       </c>
       <c r="AD16" t="n">
-        <v>118870.4723195719</v>
+        <v>130857.3925322472</v>
       </c>
       <c r="AE16" t="n">
-        <v>162643.8244226899</v>
+        <v>179044.8574832613</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.792018550479871e-06</v>
+        <v>8.991706370514907e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH16" t="n">
-        <v>147121.3260918745</v>
+        <v>161957.0675761446</v>
       </c>
     </row>
   </sheetData>
@@ -37091,28 +37091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.89438965427765</v>
+        <v>86.21477558074419</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.89609921402196</v>
+        <v>117.9628594769854</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.0302258855525</v>
+        <v>106.7046497304457</v>
       </c>
       <c r="AD2" t="n">
-        <v>67894.38965427765</v>
+        <v>86214.77558074419</v>
       </c>
       <c r="AE2" t="n">
-        <v>92896.09921402196</v>
+        <v>117962.8594769854</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.379153337117906e-06</v>
+        <v>1.345285427470437e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.689778645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84030.2258855525</v>
+        <v>106704.6497304457</v>
       </c>
     </row>
   </sheetData>
@@ -37388,28 +37388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.0507910112354</v>
+        <v>176.5934336139004</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.1473326196082</v>
+        <v>241.6229266228759</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.9002889451049</v>
+        <v>218.562773625966</v>
       </c>
       <c r="AD2" t="n">
-        <v>155050.7910112354</v>
+        <v>176593.4336139004</v>
       </c>
       <c r="AE2" t="n">
-        <v>212147.3326196083</v>
+        <v>241622.9266228759</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.87843425559076e-06</v>
+        <v>7.986795505940775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.386393229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>191900.2889451049</v>
+        <v>218562.773625966</v>
       </c>
     </row>
     <row r="3">
@@ -37494,28 +37494,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.2680579296974</v>
+        <v>133.895951878383</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.6101097765027</v>
+        <v>183.2023484324195</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.9497764926184</v>
+        <v>165.7177734241918</v>
       </c>
       <c r="AD3" t="n">
-        <v>112268.0579296974</v>
+        <v>133895.951878383</v>
       </c>
       <c r="AE3" t="n">
-        <v>153610.1097765027</v>
+        <v>183202.3484324195</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.738566670667882e-06</v>
+        <v>9.75805196010118e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.590494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138949.7764926184</v>
+        <v>165717.7734241918</v>
       </c>
     </row>
     <row r="4">
@@ -37600,28 +37600,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.6430604491072</v>
+        <v>124.1003621972006</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.4407635986454</v>
+        <v>169.7995904797154</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.0372942306782</v>
+        <v>153.5941558796005</v>
       </c>
       <c r="AD4" t="n">
-        <v>102643.0604491072</v>
+        <v>124100.3621972006</v>
       </c>
       <c r="AE4" t="n">
-        <v>140440.7635986455</v>
+        <v>169799.5904797154</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.054401440821352e-06</v>
+        <v>1.040844527777709e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>127037.2942306782</v>
+        <v>153594.1558796006</v>
       </c>
     </row>
     <row r="5">
@@ -37706,28 +37706,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.34765444761764</v>
+        <v>108.1616909305115</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.1953554905861</v>
+        <v>147.9915972880929</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.4833777034556</v>
+        <v>133.8674869504688</v>
       </c>
       <c r="AD5" t="n">
-        <v>97347.65444761765</v>
+        <v>108161.6909305115</v>
       </c>
       <c r="AE5" t="n">
-        <v>133195.3554905861</v>
+        <v>147991.5972880929</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.21932111894914e-06</v>
+        <v>1.074806164286398e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.258463541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>120483.3777034556</v>
+        <v>133867.4869504689</v>
       </c>
     </row>
     <row r="6">
@@ -37812,28 +37812,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.08180991621856</v>
+        <v>105.8958463991124</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.0951270407217</v>
+        <v>144.8913688382285</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.6790307056473</v>
+        <v>131.0631399526605</v>
       </c>
       <c r="AD6" t="n">
-        <v>95081.80991621855</v>
+        <v>105895.8463991124</v>
       </c>
       <c r="AE6" t="n">
-        <v>130095.1270407217</v>
+        <v>144891.3688382285</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.281610173552538e-06</v>
+        <v>1.087633246263064e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.221028645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>117679.0307056473</v>
+        <v>131063.1399526605</v>
       </c>
     </row>
     <row r="7">
@@ -37918,28 +37918,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.49112796634459</v>
+        <v>106.3051644492384</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.6551740547418</v>
+        <v>145.4514158522485</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.1856276186804</v>
+        <v>131.5697368656936</v>
       </c>
       <c r="AD7" t="n">
-        <v>95491.12796634459</v>
+        <v>106305.1644492384</v>
       </c>
       <c r="AE7" t="n">
-        <v>130655.1740547418</v>
+        <v>145451.4158522486</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.27805677110872e-06</v>
+        <v>1.086901499975805e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>118185.6276186804</v>
+        <v>131569.7368656936</v>
       </c>
     </row>
   </sheetData>
@@ -38215,28 +38215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.4723591917105</v>
+        <v>230.1709403234591</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.8221495947233</v>
+        <v>314.9300349756337</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.1661409317381</v>
+        <v>284.8735544447327</v>
       </c>
       <c r="AD2" t="n">
-        <v>196472.3591917105</v>
+        <v>230170.9403234591</v>
       </c>
       <c r="AE2" t="n">
-        <v>268822.1495947233</v>
+        <v>314930.0349756337</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.326177264308918e-06</v>
+        <v>6.589769549022099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.923502604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>243166.1409317381</v>
+        <v>284873.5544447327</v>
       </c>
     </row>
     <row r="3">
@@ -38321,28 +38321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.7855738415743</v>
+        <v>155.3081884991211</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.6830802160369</v>
+        <v>212.4995152181089</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.3435020340739</v>
+        <v>192.2188597306961</v>
       </c>
       <c r="AD3" t="n">
-        <v>132785.5738415743</v>
+        <v>155308.1884991211</v>
       </c>
       <c r="AE3" t="n">
-        <v>181683.0802160369</v>
+        <v>212499.515218109</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.312982093419444e-06</v>
+        <v>8.544811597886441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.797200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>164343.5020340739</v>
+        <v>192218.8597306961</v>
       </c>
     </row>
     <row r="4">
@@ -38427,28 +38427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.7990794014317</v>
+        <v>142.1511018583863</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.914385599343</v>
+        <v>194.4974088265682</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.2706266930721</v>
+        <v>175.9348491070433</v>
       </c>
       <c r="AD4" t="n">
-        <v>119799.0794014317</v>
+        <v>142151.1018583863</v>
       </c>
       <c r="AE4" t="n">
-        <v>163914.385599343</v>
+        <v>194497.4088265682</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.680757320338886e-06</v>
+        <v>9.273442034166565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.499348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>148270.6266930721</v>
+        <v>175934.8491070433</v>
       </c>
     </row>
     <row r="5">
@@ -38533,28 +38533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.6614080653192</v>
+        <v>136.0134305222738</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.5165529023291</v>
+        <v>186.0995761295543</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.6742713622263</v>
+        <v>168.3384937761975</v>
       </c>
       <c r="AD5" t="n">
-        <v>113661.4080653192</v>
+        <v>136013.4305222738</v>
       </c>
       <c r="AE5" t="n">
-        <v>155516.5529023291</v>
+        <v>186099.5761295543</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.85533735281638e-06</v>
+        <v>9.619317220745503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>140674.2713622263</v>
+        <v>168338.4937761975</v>
       </c>
     </row>
     <row r="6">
@@ -38639,28 +38639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.3816083530743</v>
+        <v>120.6430051903987</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.6607421246008</v>
+        <v>165.0690820951852</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.3773309464405</v>
+        <v>149.3151205759782</v>
       </c>
       <c r="AD6" t="n">
-        <v>109381.6083530743</v>
+        <v>120643.0051903987</v>
       </c>
       <c r="AE6" t="n">
-        <v>149660.7421246008</v>
+        <v>165069.0820951852</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.973065674429443e-06</v>
+        <v>9.852558701032163e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.292643229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>135377.3309464405</v>
+        <v>149315.1205759782</v>
       </c>
     </row>
     <row r="7">
@@ -38745,28 +38745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.7163967955544</v>
+        <v>116.9777936328789</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.6458379738828</v>
+        <v>160.0541779444672</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.8410422094032</v>
+        <v>144.7788318389409</v>
       </c>
       <c r="AD7" t="n">
-        <v>105716.3967955544</v>
+        <v>116977.7936328789</v>
       </c>
       <c r="AE7" t="n">
-        <v>144645.8379738828</v>
+        <v>160054.1779444672</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.058292929477533e-06</v>
+        <v>1.00214095846243e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.2373046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>130841.0422094032</v>
+        <v>144778.8318389409</v>
       </c>
     </row>
     <row r="8">
@@ -38851,28 +38851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.9835783762848</v>
+        <v>114.2449752136093</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.9066752492003</v>
+        <v>156.3150152197847</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.4587399272154</v>
+        <v>141.3965295567531</v>
       </c>
       <c r="AD8" t="n">
-        <v>102983.5783762848</v>
+        <v>114244.9752136093</v>
       </c>
       <c r="AE8" t="n">
-        <v>140906.6752492003</v>
+        <v>156315.0152197847</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.101459980735655e-06</v>
+        <v>1.010693146072941e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.209635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>127458.7399272154</v>
+        <v>141396.5295567531</v>
       </c>
     </row>
     <row r="9">
@@ -38957,28 +38957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.2304756797881</v>
+        <v>114.4918725171126</v>
       </c>
       <c r="AB9" t="n">
-        <v>141.2444910321937</v>
+        <v>156.6528310027781</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.7643150460074</v>
+        <v>141.7021046755451</v>
       </c>
       <c r="AD9" t="n">
-        <v>103230.4756797881</v>
+        <v>114491.8725171126</v>
       </c>
       <c r="AE9" t="n">
-        <v>141244.4910321937</v>
+        <v>156652.8310027781</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.100453755764605e-06</v>
+        <v>1.010493794380388e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.211263020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>127764.3150460074</v>
+        <v>141702.1046755451</v>
       </c>
     </row>
   </sheetData>
